--- a/biology/Botanique/Duranta/Duranta.xlsx
+++ b/biology/Botanique/Duranta/Duranta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duranta est un genre de plantes qui regroupe plus de 30 espèces d'arbustes à fleurs de la famille des Verbenaceae originaires d'Amérique (Floride, Mexique, Amérique du Sud), dont la plus connue est Duranta erecta, le vanillier de Cayenne.
 Le genre est nommé en mémoire de Castore Durante (1529-1590), un médecin, poète et botaniste romain qui publia en 1585 un recueil intitulé Herbario Nuovo, où il compilait les descriptions de plantes médicinales d’Europe et des Indes.
@@ -513,7 +525,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Duranta dombeyana
 Duranta erecta
